--- a/biology/Botanique/Clematis_cirrhosa/Clematis_cirrhosa.xlsx
+++ b/biology/Botanique/Clematis_cirrhosa/Clematis_cirrhosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clematis cirrhosa est une espèce de plante grimpante de la famille des Ranunculaceae et originaire d'Europe. Son feuillage est persistant, teinté de bronze au revers. Elle est aussi nommée la clématite de Noël[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clematis cirrhosa est une espèce de plante grimpante de la famille des Ranunculaceae et originaire d'Europe. Son feuillage est persistant, teinté de bronze au revers. Elle est aussi nommée la clématite de Noël.
 </t>
         </is>
       </c>
@@ -513,16 +525,18 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Floraison
-Sa floraison étant précoce (février-mars), elle fait partie du groupe 1. Les fleurs mesurent de 3 à 6 cm de long, solitaires ou parfois réunies en bouquets. Elles sont de couleur crème, parfois ponctuées de rouge.
+          <t>Floraison</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa floraison étant précoce (février-mars), elle fait partie du groupe 1. Les fleurs mesurent de 3 à 6 cm de long, solitaires ou parfois réunies en bouquets. Elles sont de couleur crème, parfois ponctuées de rouge.
 Les fruits plumeux sont décoratifs.
 			Clematis cirrhosa.
 			Clematis cirrhosa.
 			Clematis cirrhosa (Dessin).
 			Clematis cirrhosa.
-Taille
-2,50 m à 3 m de haut pour 1,50 m de diamètre.
-Elle est moyennement rustique.
 </t>
         </is>
       </c>
@@ -548,12 +562,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Variétés</t>
+          <t>Caractéristiques</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">On peut trouver la variété Clematis cirrhosa var. balearica originaire des Baléares, aux fleurs crème ponctuées de brun-rougeâtre et le cultivar Clematis cirrhosa 'Freckles', à fleurs rose crème mouchetées de rouge à l'intérieur.
+          <t>Taille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2,50 m à 3 m de haut pour 1,50 m de diamètre.
+Elle est moyennement rustique.
 </t>
         </is>
       </c>
@@ -579,10 +600,17 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Taxinomie</t>
+          <t>Variétés</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On peut trouver la variété Clematis cirrhosa var. balearica originaire des Baléares, aux fleurs crème ponctuées de brun-rougeâtre et le cultivar Clematis cirrhosa 'Freckles', à fleurs rose crème mouchetées de rouge à l'intérieur.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -605,14 +633,78 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Clematis_cirrhosa</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_cirrhosa</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Clematis cirrhosa var. balearica (îles Baléares)
-Synonymes
-Atragene balearica Pers.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Clematis cirrhosa var. balearica (îles Baléares)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Clematis_cirrhosa</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_cirrhosa</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Atragene balearica Pers.
 Atragene cirrhosa Pers.
 Cheiropsis balearica Bercht. &amp; J.Presl
 Cheiropsis cirrhosa Bercht. &amp; J.Presl
